--- a/CableConfig_INP.xlsx
+++ b/CableConfig_INP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python\Tool-test\Tools-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoosa\Desktop\Github\Tools-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDBA404-EED3-4956-AA8D-0E3B78E28348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797D1095-BC0C-4D54-9A9E-AC552850A07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C5F9B5A0-B53A-4BB8-8E53-FE4DF8175A80}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5F9B5A0-B53A-4BB8-8E53-FE4DF8175A80}"/>
   </bookViews>
   <sheets>
     <sheet name="profile" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="OUT" sheetId="4" r:id="rId3"/>
     <sheet name="reference excel calc sheet" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="141">
   <si>
     <t>g1 =</t>
   </si>
@@ -568,15 +566,19 @@
   <si>
     <t>elev(PVC)</t>
   </si>
+  <si>
+    <t>Cable #</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -588,6 +590,12 @@
       <sz val="11"/>
       <name val="돋움"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -655,18 +663,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{64DD3614-593E-46BB-8B1E-40D935B09DA7}"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -685,16 +693,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1400174</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -722,8 +730,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="685800" y="142875"/>
-          <a:ext cx="3133725" cy="1200150"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2811779" cy="1188720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -749,8 +757,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>349081</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>499576</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
@@ -794,9 +802,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>449356</xdr:colOff>
+      <xdr:colOff>453165</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>16249</xdr:rowOff>
+      <xdr:rowOff>33394</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -847,9 +855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>370915</xdr:colOff>
+      <xdr:colOff>376630</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>99172</xdr:rowOff>
+      <xdr:rowOff>110602</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -969,7 +977,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1268,53 +1276,54 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="D11:H12"/>
+  <dimension ref="A12:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A12" sqref="A12:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="4:8">
-      <c r="D11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>135</v>
       </c>
-      <c r="E11" t="s">
+      <c r="B12" t="s">
         <v>136</v>
       </c>
-      <c r="F11" t="s">
+      <c r="C12" t="s">
         <v>137</v>
       </c>
-      <c r="G11" t="s">
+      <c r="D12" t="s">
         <v>138</v>
       </c>
-      <c r="H11" t="s">
+      <c r="E12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
-      <c r="D12">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>2.0981E-2</v>
       </c>
-      <c r="E12">
+      <c r="B13">
         <v>-1.0898E-2</v>
       </c>
-      <c r="F12">
+      <c r="C13">
         <v>960</v>
       </c>
-      <c r="G12">
+      <c r="D13">
         <v>3567</v>
       </c>
-      <c r="H12">
+      <c r="E13">
         <v>65.370999999999995</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1325,19 +1334,19 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B4:W61"/>
+  <dimension ref="A4:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:23">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1351,163 +1360,225 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
-      <c r="B45" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>17</v>
       </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45">
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A48">
         <v>4282</v>
       </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>4302</v>
+      </c>
+      <c r="D48">
+        <v>2.0289999999999999</v>
+      </c>
+      <c r="E48">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>132.26300000000001</v>
+      </c>
+      <c r="H48">
+        <v>1.541E-2</v>
+      </c>
+      <c r="I48">
+        <v>910.8</v>
+      </c>
+      <c r="J48">
+        <v>0.13796</v>
+      </c>
+      <c r="K48">
+        <v>19300000</v>
+      </c>
+      <c r="L48">
+        <v>3.5</v>
+      </c>
+      <c r="M48">
+        <v>0.4</v>
+      </c>
+      <c r="N48">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>4302</v>
       </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>19</v>
+        <v>2.0289999999999999</v>
+      </c>
+      <c r="E49">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>132.26300000000001</v>
+      </c>
+      <c r="H49">
+        <v>1.541E-2</v>
+      </c>
+      <c r="I49">
+        <v>910.8</v>
+      </c>
+      <c r="J49">
+        <v>0.13796</v>
+      </c>
+      <c r="K49">
+        <v>19300000</v>
+      </c>
+      <c r="L49">
+        <v>3.5</v>
+      </c>
+      <c r="M49">
+        <v>0.4</v>
+      </c>
+      <c r="N49">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>4302</v>
       </c>
       <c r="D50">
-        <v>4302</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51">
         <v>2.0289999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52">
+      <c r="E50">
         <v>1.9750000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53">
+      <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54">
+      <c r="G50">
         <v>132.26300000000001</v>
       </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55">
+      <c r="H50">
         <v>1.541E-2</v>
       </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56">
+      <c r="I50">
         <v>910.8</v>
       </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57">
+      <c r="J50">
         <v>0.13796</v>
       </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58">
+      <c r="K50">
         <v>19300000</v>
       </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59">
+      <c r="L50">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60">
+      <c r="M50">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61">
+      <c r="N50">
         <v>0.4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1522,8 +1593,9 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1532,18 +1604,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92184C1-82F6-4113-A3E0-1082117A106E}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10.5" style="2"/>
     <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1635,7 @@
         <v>187.76300000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1590,7 +1662,7 @@
         <v>67.763000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -1607,7 +1679,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1635,7 +1707,7 @@
         <v>187.76300000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1663,7 +1735,7 @@
         <v>67.763000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1671,7 +1743,7 @@
         <v>65.370999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1">
+    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1723,7 +1795,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1776,7 +1848,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -1784,7 +1856,7 @@
         <v>4282</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1">
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -1834,7 +1906,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1895,7 +1967,7 @@
         <v>-71.933860098404622</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -1912,7 +1984,7 @@
         <v>-1.255482702386133</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ref="E13:E22" si="12">B14-$C$9*COS(D14)</f>
+        <f t="shared" ref="E14:E22" si="12">B14-$C$9*COS(D14)</f>
         <v>19.370777377304616</v>
       </c>
       <c r="F14" s="2">
@@ -1956,7 +2028,7 @@
         <v>-71.936602894183793</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -2017,7 +2089,7 @@
         <v>-71.936513813181477</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -2078,7 +2150,7 @@
         <v>-71.936516706370099</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -2139,7 +2211,7 @@
         <v>-71.936516612404603</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -2200,7 +2272,7 @@
         <v>-71.936516615456441</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -2261,7 +2333,7 @@
         <v>-71.936516615357306</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -2322,7 +2394,7 @@
         <v>-71.936516615360532</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -2383,7 +2455,7 @@
         <v>-71.936516615360432</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -2444,7 +2516,7 @@
         <v>-71.936516615360432</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="4" customFormat="1">
+    <row r="24" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
@@ -2500,7 +2572,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -2573,7 +2645,7 @@
         <v>-1.0254074116263685</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -2646,7 +2718,7 @@
         <v>-2.0082991273837725E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>3</v>
       </c>
@@ -2719,7 +2791,7 @@
         <v>-3.9340938027056124E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -2792,7 +2864,7 @@
         <v>-7.7065974555700386E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -2865,7 +2937,7 @@
         <v>-1.5096652957378503E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>6</v>
       </c>
@@ -2938,7 +3010,7 @@
         <v>-2.9573203866657377E-9</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>7</v>
       </c>
@@ -3011,7 +3083,7 @@
         <v>-5.7929917443994013E-11</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>8</v>
       </c>
@@ -3084,7 +3156,7 @@
         <v>-1.1321264293199975E-12</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>9</v>
       </c>
@@ -3157,7 +3229,7 @@
         <v>-2.75716150090995E-14</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -3230,7 +3302,7 @@
         <v>1.1620220885061092E-15</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="4" customFormat="1">
+    <row r="36" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -3276,7 +3348,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -3329,7 +3401,7 @@
         <v>124.54456833681414</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="4" customFormat="1">
+    <row r="39" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -3377,7 +3449,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -3434,7 +3506,7 @@
         <v>37373487.682262957</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="4" customFormat="1">
+    <row r="42" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3476,7 +3548,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -3521,7 +3593,7 @@
         <v>2.5274784884180161E-6</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="4" customFormat="1">
+    <row r="45" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3569,7 +3641,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -3626,7 +3698,7 @@
         <v>54.774100102016746</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="4" customFormat="1">
+    <row r="48" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3670,7 +3742,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -3719,7 +3791,7 @@
         <v>64.785082529033176</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="4" customFormat="1">
+    <row r="51" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>76</v>
       </c>
@@ -3775,7 +3847,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="8">
         <f>B37</f>
         <v>20</v>
@@ -3849,7 +3921,7 @@
         <v>132.26300000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -3879,7 +3951,7 @@
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
     </row>
-    <row r="55" spans="1:18" s="10" customFormat="1">
+    <row r="55" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>126</v>
       </c>
@@ -3915,7 +3987,7 @@
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
     </row>
-    <row r="56" spans="1:18" s="8" customFormat="1">
+    <row r="56" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8">
         <f>G37</f>
         <v>-71.936516615360432</v>
@@ -3949,6 +4021,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.36" top="0.41" bottom="0.31" header="0.39" footer="0.26"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -3956,26 +4029,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="64356cb0-c670-4c75-8cd2-8413c05a40f4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46a2f16e-6d7d-4690-8f3b-13376243768b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FBF14A2A247DF45BFAB7AD9F0248F86" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1580924b9348ed7e70e22a34f69e7764">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="46a2f16e-6d7d-4690-8f3b-13376243768b" xmlns:ns3="64356cb0-c670-4c75-8cd2-8413c05a40f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c582c2233b2c88eb56b3539618eda86f" ns2:_="" ns3:_="">
     <xsd:import namespace="46a2f16e-6d7d-4690-8f3b-13376243768b"/>
@@ -4190,26 +4243,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43A5F55E-5D20-4C2E-A720-97C26FA0A3DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="64356cb0-c670-4c75-8cd2-8413c05a40f4"/>
-    <ds:schemaRef ds:uri="46a2f16e-6d7d-4690-8f3b-13376243768b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B68F8A8D-E182-45FD-9727-3D8BDD98BA7A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="64356cb0-c670-4c75-8cd2-8413c05a40f4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46a2f16e-6d7d-4690-8f3b-13376243768b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923D7809-EE1E-4E5F-9B92-355F61BF4F79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4226,4 +4280,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B68F8A8D-E182-45FD-9727-3D8BDD98BA7A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43A5F55E-5D20-4C2E-A720-97C26FA0A3DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="64356cb0-c670-4c75-8cd2-8413c05a40f4"/>
+    <ds:schemaRef ds:uri="46a2f16e-6d7d-4690-8f3b-13376243768b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CableConfig_INP.xlsx
+++ b/CableConfig_INP.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoosa\Desktop\Github\Tools-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python\Tool-test\Tools-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797D1095-BC0C-4D54-9A9E-AC552850A07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA79E2CC-9857-42C0-9081-E7415322EE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5F9B5A0-B53A-4BB8-8E53-FE4DF8175A80}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C5F9B5A0-B53A-4BB8-8E53-FE4DF8175A80}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7E767AF4-701B-4E05-85AE-D1BD444B09B8}"/>
   </bookViews>
   <sheets>
     <sheet name="profile" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="OUT" sheetId="4" r:id="rId3"/>
     <sheet name="reference excel calc sheet" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
   <si>
     <t>g1 =</t>
   </si>
@@ -98,15 +101,6 @@
   </si>
   <si>
     <t>Area of cable (m2)</t>
-  </si>
-  <si>
-    <t>Cable force (kN)</t>
-  </si>
-  <si>
-    <t>weight of cable (kN/m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Young's modulus of cable </t>
   </si>
   <si>
     <t>First trial input</t>
@@ -570,15 +564,42 @@
     <t>Cable #</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>weight of cable (ton/m)</t>
+  </si>
+  <si>
+    <t>Cable force (ton)</t>
+  </si>
+  <si>
+    <t>Young's modulus of cable (ton/m2)</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>t_shim</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="164" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -599,7 +620,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +651,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -644,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -663,18 +690,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{64DD3614-593E-46BB-8B1E-40D935B09DA7}"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -977,7 +1008,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1279,33 +1310,34 @@
   <dimension ref="A12:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
         <v>135</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>136</v>
       </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2.0981E-2</v>
       </c>
@@ -1334,82 +1366,84 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A4:W50"/>
+  <dimension ref="A4:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:23">
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:20" ht="176.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="D46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J46" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="M46" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L46" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" t="s">
-        <v>26</v>
-      </c>
-      <c r="N46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" s="12"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1447,52 +1481,92 @@
       <c r="N47" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O47" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="S47" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T47" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48">
-        <v>4282</v>
+        <v>3812</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>4302</v>
+        <f>A48-206</f>
+        <v>3606</v>
       </c>
       <c r="D48">
-        <v>2.0289999999999999</v>
+        <v>3.7530000000000001</v>
       </c>
       <c r="E48">
-        <v>1.9750000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>132.26300000000001</v>
+        <v>177.893</v>
       </c>
       <c r="H48">
-        <v>1.541E-2</v>
+        <v>1.2749999999999999E-2</v>
       </c>
       <c r="I48">
-        <v>910.8</v>
+        <v>620.4</v>
       </c>
       <c r="J48">
-        <v>0.13796</v>
+        <v>0.1133</v>
       </c>
       <c r="K48">
         <v>19300000</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="M48">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="N48">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+        <v>0.45</v>
+      </c>
+      <c r="O48" s="13">
+        <v>1.18</v>
+      </c>
+      <c r="P48" s="13">
+        <v>173.91300000000001</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>482.78399999999999</v>
+      </c>
+      <c r="R48" s="13">
+        <v>173.91300000000001</v>
+      </c>
+      <c r="S48" s="13">
+        <v>743.654</v>
+      </c>
+      <c r="T48" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49">
+        <v>4282</v>
+      </c>
       <c r="B49">
         <v>2</v>
       </c>
@@ -1512,13 +1586,13 @@
         <v>132.26300000000001</v>
       </c>
       <c r="H49">
-        <v>1.541E-2</v>
+        <v>7.705E-3</v>
       </c>
       <c r="I49">
-        <v>910.8</v>
+        <v>455.4</v>
       </c>
       <c r="J49">
-        <v>0.13796</v>
+        <v>6.898E-2</v>
       </c>
       <c r="K49">
         <v>19300000</v>
@@ -1532,46 +1606,23 @@
       <c r="N49">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>4302</v>
-      </c>
-      <c r="D50">
-        <v>2.0289999999999999</v>
-      </c>
-      <c r="E50">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>132.26300000000001</v>
-      </c>
-      <c r="H50">
-        <v>1.541E-2</v>
-      </c>
-      <c r="I50">
-        <v>910.8</v>
-      </c>
-      <c r="J50">
-        <v>0.13796</v>
-      </c>
-      <c r="K50">
-        <v>19300000</v>
-      </c>
-      <c r="L50">
-        <v>3.5</v>
-      </c>
-      <c r="M50">
-        <v>0.4</v>
-      </c>
-      <c r="N50">
-        <v>0.4</v>
+      <c r="O49" s="13">
+        <v>1.18</v>
+      </c>
+      <c r="P49" s="13">
+        <v>-173.91300000000001</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>485.15429999999998</v>
+      </c>
+      <c r="R49" s="13">
+        <v>-173.91300000000001</v>
+      </c>
+      <c r="S49" s="13">
+        <v>763.41520000000003</v>
+      </c>
+      <c r="T49" s="13">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -1592,8 +1643,9 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1605,17 +1657,20 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="1">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="10.5" style="2"/>
     <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1623,19 +1678,19 @@
         <v>2.0981E-2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1">
         <v>1.6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1">
         <v>187.76300000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1643,43 +1698,43 @@
         <v>-1.0898E-2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1">
         <v>3.31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2">
         <f>E2-H1</f>
         <v>1.71</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1">
         <v>67.763000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2">
         <f>E3-H1</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1687,27 +1742,27 @@
         <v>960</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2">
         <f>(K2-K1)/(E3-E2)</f>
         <v>-173.91304347826087</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2">
         <f>(K5-K4)/(H3-H2)</f>
         <v>-173.91304347826087</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K4" s="1">
         <v>187.76300000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1715,35 +1770,35 @@
         <v>3567</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2">
         <f>(K2-K1)/(E3-E2)*(-E2)+K1</f>
         <v>763.41517391304353</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2">
         <f>(K5-K4)/(H3-H2)*(-H2)+K4</f>
         <v>485.15430434782604</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1">
         <v>67.763000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>65.370999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" s="4" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1795,7 +1850,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1848,65 +1903,65 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1">
         <v>4282</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="4" customFormat="1">
       <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1967,7 +2022,7 @@
         <v>-71.933860098404622</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -1984,7 +2039,7 @@
         <v>-1.255482702386133</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ref="E14:E22" si="12">B14-$C$9*COS(D14)</f>
+        <f t="shared" ref="E14:E21" si="12">B14-$C$9*COS(D14)</f>
         <v>19.370777377304616</v>
       </c>
       <c r="F14" s="2">
@@ -2028,7 +2083,7 @@
         <v>-71.936602894183793</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -2089,7 +2144,7 @@
         <v>-71.936513813181477</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -2150,7 +2205,7 @@
         <v>-71.936516706370099</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -2211,7 +2266,7 @@
         <v>-71.936516612404603</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -2272,7 +2327,7 @@
         <v>-71.936516615456441</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -2333,7 +2388,7 @@
         <v>-71.936516615357306</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -2394,7 +2449,7 @@
         <v>-71.936516615360532</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -2455,7 +2510,7 @@
         <v>-71.936516615360432</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -2464,7 +2519,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="10"/>
+        <f>C21</f>
         <v>70.64233042968749</v>
       </c>
       <c r="D22" s="2">
@@ -2472,7 +2527,7 @@
         <v>-1.2555290673536468</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="12"/>
+        <f>B22-$C$9*COS(D22)</f>
         <v>19.370866814547757</v>
       </c>
       <c r="F22" s="2">
@@ -2516,63 +2571,63 @@
         <v>-71.936516615360432</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" s="4" customFormat="1">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="G24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="H24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="J24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="K24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="M24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="N24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="O24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="P24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="Q24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="R24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -2645,7 +2700,7 @@
         <v>-1.0254074116263685</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -2718,7 +2773,7 @@
         <v>-2.0082991273837725E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18">
       <c r="A27" s="2">
         <v>3</v>
       </c>
@@ -2791,7 +2846,7 @@
         <v>-3.9340938027056124E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -2864,7 +2919,7 @@
         <v>-7.7065974555700386E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -2937,7 +2992,7 @@
         <v>-1.5096652957378503E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18">
       <c r="A30" s="2">
         <v>6</v>
       </c>
@@ -3010,7 +3065,7 @@
         <v>-2.9573203866657377E-9</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18">
       <c r="A31" s="2">
         <v>7</v>
       </c>
@@ -3083,7 +3138,7 @@
         <v>-5.7929917443994013E-11</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18">
       <c r="A32" s="2">
         <v>8</v>
       </c>
@@ -3156,7 +3211,7 @@
         <v>-1.1321264293199975E-12</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18">
       <c r="A33" s="2">
         <v>9</v>
       </c>
@@ -3229,7 +3284,7 @@
         <v>-2.75716150090995E-14</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -3254,11 +3309,11 @@
         <v>124.66762058150229</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="17"/>
+        <f>2*C34*B34+D34</f>
         <v>-3.0930142399299898</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="18"/>
+        <f>ATAN(G34)*180/PI()</f>
         <v>-72.083501977873979</v>
       </c>
       <c r="I34" s="2">
@@ -3302,45 +3357,45 @@
         <v>1.1620220885061092E-15</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" s="4" customFormat="1">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="F36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="J36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="L36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -3348,7 +3403,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -3401,55 +3456,55 @@
         <v>124.54456833681414</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" s="4" customFormat="1">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -3506,39 +3561,39 @@
         <v>37373487.682262957</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" s="4" customFormat="1">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -3548,7 +3603,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -3593,55 +3648,55 @@
         <v>2.5274784884180161E-6</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" s="4" customFormat="1">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="G45" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="H45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="L45" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -3698,42 +3753,42 @@
         <v>54.774100102016746</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" s="4" customFormat="1">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -3742,7 +3797,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:18">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -3791,63 +3846,63 @@
         <v>64.785082529033176</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:18" s="4" customFormat="1">
       <c r="A51" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="D51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="7" t="s">
+      <c r="G51" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N51" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G51" s="7" t="s">
+      <c r="O51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R51" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H51" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="R51" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="8">
         <f>B37</f>
         <v>20</v>
@@ -3921,25 +3976,25 @@
         <v>132.26300000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:18">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -3951,32 +4006,32 @@
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
     </row>
-    <row r="55" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:18" s="10" customFormat="1">
       <c r="A55" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I55" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="J55" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -3987,7 +4042,7 @@
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
     </row>
-    <row r="56" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:18" s="8" customFormat="1">
       <c r="A56" s="8">
         <f>G37</f>
         <v>-71.936516615360432</v>
